--- a/data/levensverwachting_eu.xlsx
+++ b/data/levensverwachting_eu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thom Mekelenkamp\Documents\GitHub\ProgrammeerProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomm\Documents\GitHub\ProgrammeerProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Country</t>
   </si>
@@ -275,19 +275,38 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Moscow</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Kiev</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Chisinau</t>
+  </si>
+  <si>
+    <t>No data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0_i"/>
     <numFmt numFmtId="165" formatCode="@_i"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -388,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,6 +435,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -697,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +728,7 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -737,10 +758,10 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1">
+        <v>1990</v>
+      </c>
+      <c r="F3" s="1">
         <v>1980</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1990</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -750,17 +771,21 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>69.090975609756114</v>
-      </c>
-      <c r="D4">
-        <v>69.74121951219513</v>
-      </c>
-      <c r="E4">
-        <v>71.163414634146349</v>
-      </c>
-      <c r="F4">
-        <v>73.458536585365863</v>
+      <c r="C4" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="D4" s="11">
+        <v>71.2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>69.7</v>
+      </c>
+      <c r="F4" s="11">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f>A4&amp;".."&amp;B4&amp;".."&amp;C4&amp;".."&amp;D4&amp;".."&amp;E4&amp;".."&amp;F4</f>
+        <v>Romania..Bucharest..73,5..71,2..69,7..69,1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -770,17 +795,21 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>71.157560975609755</v>
-      </c>
-      <c r="D5">
-        <v>71.64146341463416</v>
-      </c>
-      <c r="E5">
-        <v>71.663414634146349</v>
-      </c>
-      <c r="F5">
-        <v>73.512195121951223</v>
+      <c r="C5" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>71.7</v>
+      </c>
+      <c r="E5" s="11">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="F5" s="11">
+        <v>71.2</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f t="shared" ref="H5:H46" si="0">A5&amp;".."&amp;B5&amp;".."&amp;C5&amp;".."&amp;D5&amp;".."&amp;E5&amp;".."&amp;F5</f>
+        <v>Bulgaria..Sofia..73,5..71,7..71,6..71,2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -790,17 +819,21 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>72.932439024390263</v>
-      </c>
-      <c r="D6">
-        <v>75.175780487804872</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="11">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="D6" s="11">
         <v>78.2</v>
       </c>
-      <c r="F6">
-        <v>81.397560975609764</v>
+      <c r="E6" s="11">
+        <v>75.2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="H6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Malta..Valletta..81,4..78,2..75,2..72,9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -810,17 +843,21 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>70.408536585365866</v>
-      </c>
-      <c r="D7">
-        <v>70.932682926829273</v>
-      </c>
-      <c r="E7">
-        <v>73.051219512195132</v>
-      </c>
-      <c r="F7">
-        <v>75.112195121951217</v>
+      <c r="C7" s="11">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D7" s="11">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E7" s="11">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F7" s="11">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Slovakia..Bratislava..75,1..73,1..70,9..70,4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -830,17 +867,21 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>69.061707317073186</v>
-      </c>
-      <c r="D8">
-        <v>69.315609756097572</v>
-      </c>
-      <c r="E8">
-        <v>71.246341463414637</v>
-      </c>
-      <c r="F8">
-        <v>74.207317073170742</v>
+      <c r="C8" s="11">
+        <v>74.2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>71.2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>69.3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Hungary..Budapest..74,2..71,2..69,3..69,1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -850,17 +891,21 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>70.097560975609753</v>
-      </c>
-      <c r="D9">
-        <v>70.890243902439025</v>
-      </c>
-      <c r="E9">
-        <v>73.748780487804879</v>
-      </c>
-      <c r="F9">
-        <v>76.246341463414637</v>
+      <c r="C9" s="11">
+        <v>76.2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>73.7</v>
+      </c>
+      <c r="E9" s="11">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F9" s="11">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Poland..Warsaw..76,2..73,7..70,9..70,1</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="3"/>
@@ -874,17 +919,21 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>68.808536585365857</v>
-      </c>
-      <c r="D10">
-        <v>69.273170731707324</v>
-      </c>
-      <c r="E10">
-        <v>70.314634146341476</v>
-      </c>
-      <c r="F10">
-        <v>73.482926829268294</v>
+      <c r="C10" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="D10" s="11">
+        <v>70.3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>69.3</v>
+      </c>
+      <c r="F10" s="11">
+        <v>68.8</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Latvia..Riga..73,5..70,3..69,3..68,8</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
@@ -898,17 +947,21 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>70.175365853658562</v>
-      </c>
-      <c r="D11">
-        <v>72.17048780487805</v>
-      </c>
-      <c r="E11">
-        <v>72.807804878048799</v>
-      </c>
-      <c r="F11">
-        <v>76.475609756097555</v>
+      <c r="C11" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="D11" s="11">
+        <v>72.8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>72.2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>70.2</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Croatia..Zagreb..76,5..72,8..72,2..70,2</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
@@ -922,17 +975,21 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>72.072609756097563</v>
-      </c>
-      <c r="D12">
-        <v>75.010414634146343</v>
-      </c>
-      <c r="E12">
-        <v>77.873170731707319</v>
-      </c>
-      <c r="F12">
-        <v>80.631707317073179</v>
+      <c r="C12" s="11">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D12" s="11">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E12" s="11">
+        <v>75</v>
+      </c>
+      <c r="F12" s="11">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Luxembourg..Luxembourg..80,6..77,9..75..72,1</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
@@ -946,17 +1003,21 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13">
-        <v>75.743170731707323</v>
-      </c>
-      <c r="D13">
-        <v>76.878048780487802</v>
-      </c>
-      <c r="E13">
-        <v>77.987804878048792</v>
-      </c>
-      <c r="F13">
-        <v>80.702439024390245</v>
+      <c r="C13" s="11">
+        <v>80.7</v>
+      </c>
+      <c r="D13" s="11">
+        <v>78</v>
+      </c>
+      <c r="E13" s="11">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F13" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Netherlands..Amsterdam..80,7..78..76,9..75,7</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
@@ -970,17 +1031,21 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
-        <v>73.675609756097572</v>
-      </c>
-      <c r="D14">
-        <v>75.880487804878058</v>
-      </c>
-      <c r="E14">
-        <v>77.741463414634154</v>
-      </c>
-      <c r="F14">
-        <v>80.402439024390247</v>
+      <c r="C14" s="11">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D14" s="11">
+        <v>77.7</v>
+      </c>
+      <c r="E14" s="11">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F14" s="11">
+        <v>73.7</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>United Kingdom..London..80,4..77,7..75,9..73,7</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="3"/>
@@ -994,17 +1059,21 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15">
-        <v>73.647146341463426</v>
-      </c>
-      <c r="D15">
-        <v>76.939024390243915</v>
-      </c>
-      <c r="E15">
-        <v>77.887804878048797</v>
-      </c>
-      <c r="F15">
-        <v>80.387804878048797</v>
+      <c r="C15" s="11">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D15" s="11">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E15" s="11">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F15" s="11">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Greece..Athens..80,4..77,9..76,9..73,6</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="4"/>
@@ -1018,17 +1087,21 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
-        <v>70.482195121951221</v>
-      </c>
-      <c r="D16">
-        <v>71.160731707317083</v>
-      </c>
-      <c r="E16">
-        <v>72.019512195121948</v>
-      </c>
-      <c r="F16">
-        <v>73.268292682926827</v>
+      <c r="C16" s="11">
+        <v>73.3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>72</v>
+      </c>
+      <c r="E16" s="11">
+        <v>71.2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Lithuania..Vilnius..73,3..72..71,2..70,5</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="4"/>
@@ -1042,17 +1115,21 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17">
-        <v>74.051219512195132</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="11">
+        <v>81.7</v>
+      </c>
+      <c r="D17" s="11">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="E17" s="11">
         <v>76.599999999999994</v>
       </c>
-      <c r="E17">
-        <v>79.056097560975616</v>
-      </c>
-      <c r="F17">
-        <v>81.663414634146349</v>
+      <c r="F17" s="11">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>France..Paris..81,7..79,1..76,6..74,1</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
@@ -1066,17 +1143,21 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
-        <v>73.207073170731718</v>
-      </c>
-      <c r="D18">
-        <v>76.051951219512205</v>
-      </c>
-      <c r="E18">
-        <v>77.721951219512192</v>
-      </c>
-      <c r="F18">
-        <v>80.182926829268297</v>
+      <c r="C18" s="11">
+        <v>80.2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>77.7</v>
+      </c>
+      <c r="E18" s="11">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F18" s="11">
+        <v>73.2</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Belgium..Brussels..80,2..77,7..76,1..73,2</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="3"/>
@@ -1090,17 +1171,21 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
-        <v>74.101707317073178</v>
-      </c>
-      <c r="D19">
-        <v>74.805365853658543</v>
-      </c>
-      <c r="E19">
-        <v>76.592682926829269</v>
-      </c>
-      <c r="F19">
+      <c r="C19" s="11">
         <v>79.099999999999994</v>
+      </c>
+      <c r="D19" s="11">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E19" s="11">
+        <v>74.8</v>
+      </c>
+      <c r="F19" s="11">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Denmark..Copenhagen..79,1..76,6..74,8..74,1</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="8"/>
@@ -1114,17 +1199,21 @@
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20">
-        <v>72.549365853658543</v>
-      </c>
-      <c r="D20">
-        <v>74.741317073170748</v>
-      </c>
-      <c r="E20">
-        <v>76.536585365853668</v>
-      </c>
-      <c r="F20">
-        <v>80.743902439024382</v>
+      <c r="C20" s="11">
+        <v>80.7</v>
+      </c>
+      <c r="D20" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>74.7</v>
+      </c>
+      <c r="F20" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ireland..Dublin..80,7..76,5..74,7..72,5</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1134,17 +1223,21 @@
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21">
-        <v>72.677902439024393</v>
-      </c>
-      <c r="D21">
-        <v>75.177365853658557</v>
-      </c>
-      <c r="E21">
-        <v>77.926829268292693</v>
-      </c>
-      <c r="F21">
-        <v>79.987804878048792</v>
+      <c r="C21" s="11">
+        <v>80</v>
+      </c>
+      <c r="D21" s="11">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="E21" s="11">
+        <v>75.2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>72.7</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Germany..Berlin..80..77,9..75,2..72,7</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1154,17 +1247,21 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22">
-        <v>72.463414634146346</v>
-      </c>
-      <c r="D22">
-        <v>75.568292682926852</v>
-      </c>
-      <c r="E22">
-        <v>78.126829268292695</v>
-      </c>
-      <c r="F22">
-        <v>80.580487804878061</v>
+      <c r="C22" s="11">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D22" s="11">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E22" s="11">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F22" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Austria..Vienna..80,6..78,1..75,6..72,5</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1174,17 +1271,21 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23">
-        <v>73.943170731707326</v>
-      </c>
-      <c r="D23">
-        <v>76.970731707317071</v>
-      </c>
-      <c r="E23">
-        <v>79.778048780487822</v>
-      </c>
-      <c r="F23">
-        <v>82.036585365853668</v>
+      <c r="C23" s="11">
+        <v>82</v>
+      </c>
+      <c r="D23" s="11">
+        <v>79.8</v>
+      </c>
+      <c r="E23" s="11">
+        <v>77</v>
+      </c>
+      <c r="F23" s="11">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Italy..Rome..82..79,8..77..73,9</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1194,17 +1295,21 @@
       <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24">
-        <v>71.214634146341467</v>
-      </c>
-      <c r="D24">
-        <v>73.965853658536588</v>
-      </c>
-      <c r="E24">
-        <v>76.314634146341476</v>
-      </c>
-      <c r="F24">
-        <v>79.026829268292687</v>
+      <c r="C24" s="11">
+        <v>79</v>
+      </c>
+      <c r="D24" s="11">
+        <v>76.3</v>
+      </c>
+      <c r="E24" s="11">
+        <v>74</v>
+      </c>
+      <c r="F24" s="11">
+        <v>71.2</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Portugal..Lisbon..79..76,3..74..71,2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1214,17 +1319,21 @@
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25">
-        <v>71.104878048780492</v>
-      </c>
-      <c r="D25">
-        <v>73.204878048780486</v>
-      </c>
-      <c r="E25">
-        <v>75.412195121951228</v>
-      </c>
-      <c r="F25">
-        <v>79.421951219512195</v>
+      <c r="C25" s="11">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D25" s="11">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E25" s="11">
+        <v>73.2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Slovenia..Ljubljana..79,4..75,4..73,2..71,1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1234,17 +1343,21 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26">
-        <v>75.349268292682936</v>
-      </c>
-      <c r="D26">
-        <v>76.837560975609762</v>
-      </c>
-      <c r="E26">
-        <v>78.965853658536588</v>
-      </c>
-      <c r="F26">
-        <v>81.626829268292695</v>
+      <c r="C26" s="11">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D26" s="11">
+        <v>79</v>
+      </c>
+      <c r="E26" s="11">
+        <v>76.8</v>
+      </c>
+      <c r="F26" s="11">
+        <v>75.3</v>
+      </c>
+      <c r="H26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Spain..Madrid..81,6..79..76,8..75,3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1254,17 +1367,21 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27">
-        <v>75.740975609756106</v>
-      </c>
-      <c r="D27">
-        <v>77.536829268292692</v>
-      </c>
-      <c r="E27">
-        <v>79.643902439024401</v>
-      </c>
-      <c r="F27">
-        <v>81.451219512195138</v>
+      <c r="C27" s="11">
+        <v>81.5</v>
+      </c>
+      <c r="D27" s="11">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="E27" s="11">
+        <v>77.5</v>
+      </c>
+      <c r="F27" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sweden..Stockholm..81,5..79,6..77,5..75,7</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1274,17 +1391,21 @@
       <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C28">
-        <v>70.278048780487808</v>
-      </c>
-      <c r="D28">
-        <v>71.383902439024411</v>
-      </c>
-      <c r="E28">
-        <v>74.968292682926844</v>
-      </c>
-      <c r="F28">
-        <v>77.424390243902451</v>
+      <c r="C28" s="11">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D28" s="11">
+        <v>75</v>
+      </c>
+      <c r="E28" s="11">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F28" s="11">
+        <v>70.3</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Czech Republic..Prague..77,4..75..71,4..70,3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1294,17 +1415,21 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29">
-        <v>68.914073170731712</v>
-      </c>
-      <c r="D29">
-        <v>69.475609756097569</v>
-      </c>
-      <c r="E29">
-        <v>70.417073170731726</v>
-      </c>
-      <c r="F29">
-        <v>75.429268292682934</v>
+      <c r="C29" s="11">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="D29" s="11">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E29" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="F29" s="11">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Estonia..Tallinn..75,4..70,4..69,5..68,9</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1314,17 +1439,21 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30">
-        <v>73.44</v>
-      </c>
-      <c r="D30">
-        <v>74.813170731707316</v>
-      </c>
-      <c r="E30">
-        <v>77.465853658536602</v>
-      </c>
-      <c r="F30">
-        <v>79.870731707317091</v>
+      <c r="C30" s="11">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D30" s="11">
+        <v>77.5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>74.8</v>
+      </c>
+      <c r="F30" s="11">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Finland..Helsinki..79,9..77,5..74,8..73,4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1334,17 +1463,21 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31">
-        <v>74.756804878048783</v>
-      </c>
-      <c r="D31">
-        <v>76.513951219512208</v>
-      </c>
-      <c r="E31">
-        <v>77.971682926829274</v>
-      </c>
-      <c r="F31">
-        <v>79.381951219512203</v>
+      <c r="C31" s="11">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D31" s="11">
+        <v>78</v>
+      </c>
+      <c r="E31" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F31" s="11">
+        <v>74.8</v>
+      </c>
+      <c r="H31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Cyprus..Nicosia..79,4..78..76,5..74,8</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1354,237 +1487,357 @@
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32">
-        <v>67.748780487804879</v>
-      </c>
-      <c r="E32">
-        <v>67.951219512195138</v>
-      </c>
-      <c r="F32">
+      <c r="C32">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="11">
+        <v>68</v>
+      </c>
+      <c r="E32" s="11">
+        <v>67.7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Kosovo ..Pristina..69,9..68..67,7..No data</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C33">
-        <v>58.691585365853662</v>
-      </c>
-      <c r="D33">
-        <v>64.282341463414639</v>
-      </c>
-      <c r="E33">
-        <v>69.999341463414638</v>
-      </c>
-      <c r="F33">
-        <v>74.090926829268298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="11">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D33" s="11">
+        <v>70</v>
+      </c>
+      <c r="E33" s="11">
+        <v>64.3</v>
+      </c>
+      <c r="F33" s="11">
+        <v>58.7</v>
+      </c>
+      <c r="H33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Turkey..Ankara..74,1..70..64,3..58,7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
       <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="C34">
-        <v>68.650439024390252</v>
-      </c>
-      <c r="D34">
-        <v>71.147634146341474</v>
-      </c>
-      <c r="E34">
-        <v>73.242195121951227</v>
-      </c>
-      <c r="F34">
-        <v>74.722634146341463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="11">
+        <v>74.7</v>
+      </c>
+      <c r="D34" s="11">
+        <v>73.2</v>
+      </c>
+      <c r="E34" s="11">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F34" s="11">
+        <v>68.7</v>
+      </c>
+      <c r="H34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Macedonia..Skopje..74,7..73,2..71,1..68,7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C35">
-        <v>70.235975609756096</v>
-      </c>
-      <c r="D35">
-        <v>71.957317073170728</v>
-      </c>
-      <c r="E35">
-        <v>74.271536585365865</v>
-      </c>
-      <c r="F35">
-        <v>77.036951219512204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="11">
+        <v>77</v>
+      </c>
+      <c r="D35" s="11">
+        <v>74.3</v>
+      </c>
+      <c r="E35" s="11">
+        <v>72</v>
+      </c>
+      <c r="F35" s="11">
+        <v>70.2</v>
+      </c>
+      <c r="H35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Albania..Tirana..77..74,3..72..70,2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36">
-        <v>71.582926829268303</v>
-      </c>
-      <c r="F36">
-        <v>74.336585365853665</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="11">
+        <v>74.3</v>
+      </c>
+      <c r="D36" s="11">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Serbia..Belgrade..74,3..71,6..No data..No data</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
       <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37">
-        <v>76.826829268292698</v>
-      </c>
-      <c r="F37">
-        <v>81.841463414634163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="11">
+        <v>81.8</v>
+      </c>
+      <c r="D37" s="11">
+        <v>76.8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Liechtenstein..Vaduz..81,8..76,8..No data..No data</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="C38">
-        <v>70.21358536585366</v>
-      </c>
-      <c r="D38">
-        <v>70.783219512195132</v>
-      </c>
-      <c r="E38">
-        <v>74.260731707317092</v>
-      </c>
-      <c r="F38">
-        <v>75.807682926829287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="11">
+        <v>75.8</v>
+      </c>
+      <c r="D38" s="11">
+        <v>74.3</v>
+      </c>
+      <c r="E38" s="11">
+        <v>70.8</v>
+      </c>
+      <c r="F38" s="11">
+        <v>70.2</v>
+      </c>
+      <c r="H38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Bosnia and Herzegovina ..Sarajevo..75,8..74,3..70,8..70,2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C39">
-        <v>72.872195121951208</v>
-      </c>
-      <c r="D39">
-        <v>74.443365853658548</v>
-      </c>
-      <c r="E39">
-        <v>73.182048780487818</v>
-      </c>
-      <c r="F39">
-        <v>75.045292682926842</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="11">
+        <v>75</v>
+      </c>
+      <c r="D39" s="11">
+        <v>73.2</v>
+      </c>
+      <c r="E39" s="11">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F39" s="11">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="H39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Montenegro..Podgorica..75..73,2..74,4..72,9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C40">
-        <v>75.45926829268295</v>
-      </c>
-      <c r="D40">
-        <v>77.242439024390237</v>
-      </c>
-      <c r="E40">
-        <v>79.680487804878055</v>
-      </c>
-      <c r="F40">
-        <v>82.246341463414652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="11">
+        <v>82.2</v>
+      </c>
+      <c r="D40" s="11">
+        <v>79.7</v>
+      </c>
+      <c r="E40" s="11">
+        <v>77.2</v>
+      </c>
+      <c r="F40" s="11">
+        <v>75.5</v>
+      </c>
+      <c r="H40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Switzerland..Bern..82,2..79,7..77,2..75,5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
       <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C41">
-        <v>75.671707317073185</v>
-      </c>
-      <c r="D41">
-        <v>76.53731707317074</v>
-      </c>
-      <c r="E41">
-        <v>78.634146341463421</v>
-      </c>
-      <c r="F41">
-        <v>80.997560975609773</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="11">
+        <v>81</v>
+      </c>
+      <c r="D41" s="11">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E41" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F41" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="H41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Norway..Oslo..81..78,6..76,5..75,7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
       </c>
-      <c r="C42">
-        <v>76.84658536585367</v>
-      </c>
-      <c r="D42">
-        <v>78.03634146341463</v>
-      </c>
-      <c r="E42">
-        <v>79.653658536585368</v>
-      </c>
-      <c r="F42">
-        <v>81.89756097560975</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="11">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D42" s="11">
+        <v>79.7</v>
+      </c>
+      <c r="E42" s="11">
+        <v>78</v>
+      </c>
+      <c r="F42" s="11">
+        <v>76.8</v>
+      </c>
+      <c r="H42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Iceland..Reykjavik..81,9..79,7..78..76,8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
       <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="11">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D43" s="11">
+        <v>65.3</v>
+      </c>
+      <c r="E43" s="11">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F43" s="11">
+        <v>67</v>
+      </c>
+      <c r="H43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Russia..Moscow..68,9..65,3..68,9..67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>84</v>
       </c>
-      <c r="C43">
-        <v>67.033902439024402</v>
-      </c>
-      <c r="D43">
-        <v>68.902439024390247</v>
-      </c>
-      <c r="E43">
-        <v>65.341463414634148</v>
-      </c>
-      <c r="F43">
-        <v>68.856097560975627</v>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="11">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D44" s="11">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E44" s="11">
+        <v>70.8</v>
+      </c>
+      <c r="F44" s="11">
+        <v>69.8</v>
+      </c>
+      <c r="H44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Belarus..Minsk..70,4..68,9..70,8..69,8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="11">
+        <v>70.3</v>
+      </c>
+      <c r="D45" s="11">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="E45" s="11">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F45" s="11">
+        <v>68.8</v>
+      </c>
+      <c r="H45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ukraine..Kiev..70,3..67,9..70,1..68,8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="11">
+        <v>69.7</v>
+      </c>
+      <c r="D46" s="11">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E46" s="11">
+        <v>67.5</v>
+      </c>
+      <c r="F46" s="11">
+        <v>64.8</v>
+      </c>
+      <c r="H46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Moldova..Chisinau..69,7..66,9..67,5..64,8</v>
       </c>
     </row>
   </sheetData>
@@ -1592,5 +1845,6 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>